--- a/AutomationProject/src/main/resources/ActiTimeTestData.xlsx
+++ b/AutomationProject/src/main/resources/ActiTimeTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wcsm9seleniumproject\AutomationProject\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\git\SeleniumAutomationRepo\AutomationProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E3CC5D-AB26-41C8-A344-4D98BB2CBCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903CC353-E042-4E41-9CBD-60E632663BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid Credentials" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Username</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>mana_ger</t>
+  </si>
+  <si>
+    <t>Customer_Description</t>
+  </si>
+  <si>
+    <t>Project_Description</t>
+  </si>
+  <si>
+    <t>Credit And Debit</t>
+  </si>
+  <si>
+    <t>Automate Using Selemiun</t>
   </si>
 </sst>
 </file>
@@ -138,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -305,6 +317,26 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -315,14 +347,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
@@ -332,6 +360,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -615,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C166B9A8-1E64-4053-B4A2-772A5201B65B}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -626,82 +681,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -733,10 +788,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -755,32 +810,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E46C71-8A4B-4037-ABE7-CA870969D61A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>21</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
